--- a/publication/web-root/matchsync/0.1.1/CodeSystem-nmdp-rh-status-cs.xlsx
+++ b/publication/web-root/matchsync/0.1.1/CodeSystem-nmdp-rh-status-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T17:47:55-06:00</t>
+    <t>2024-12-02T18:26:03-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/matchsync/0.1.1/CodeSystem-nmdp-rh-status-cs.xlsx
+++ b/publication/web-root/matchsync/0.1.1/CodeSystem-nmdp-rh-status-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NMDP Rh Code System</t>
+    <t>CodeSystem - Blood Group (Rh) - NMDP</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T18:26:03-06:00</t>
+    <t>2025-04-15T15:35:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>5</t>
+    <t>2</t>
   </si>
   <si>
     <t>Level</t>
@@ -141,31 +141,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Indeterminant</t>
-  </si>
-  <si>
-    <t>P</t>
+    <t>Rh+</t>
   </si>
   <si>
     <t>Positive</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Rh-</t>
   </si>
   <si>
     <t>Negative</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>no data</t>
   </si>
 </sst>
 </file>
@@ -480,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,42 +509,6 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
